--- a/documents/benchmarks.xlsx
+++ b/documents/benchmarks.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulRobson\Projects\amoral\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8E9A0-5023-42BE-AF6A-9C5CD0FD5DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C910AB09-23F8-4394-B9BE-D5B48A2EFB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>PCW Benchmark Timings</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>6510 / 1MHz</t>
+  </si>
+  <si>
+    <t>Amoral/Fast</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -428,6 +431,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="36">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -481,9 +485,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A4:AMJ16" headerRowCount="0" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AMJ16">
-    <sortCondition ref="M4:M16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A5:AMJ17" headerRowCount="0" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AMJ17">
+    <sortCondition ref="M5:M17"/>
   </sortState>
   <tableColumns count="1024">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
@@ -1812,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1894,161 +1898,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="15">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="E4" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="8">
-        <v>1.0999999999999999E-2</v>
-      </c>
       <c r="G4" s="8">
-        <v>2.4E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H4" s="8">
-        <v>2.4E-2</v>
+        <v>0.15</v>
       </c>
       <c r="I4" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="J4" s="8">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0.12</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="9">
-        <f t="shared" ref="M4:M16" si="0">AVERAGE(E4:J4)</f>
-        <v>2.7166666666666662E-2</v>
+        <f t="shared" ref="M4" si="0">AVERAGE(E4:J4)</f>
+        <v>0.11183333333333334</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" ref="N4:N16" si="1">$M$18/M4</f>
-        <v>438.03680981595102</v>
+        <f t="shared" ref="N4" si="1">$M$19/M4</f>
+        <v>106.40834575260804</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E5" s="8">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F5" s="8">
-        <v>0.05</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G5" s="8">
-        <v>0.3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H5" s="8">
-        <v>0.32</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I5" s="8">
-        <v>0.41</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J5" s="8">
-        <v>0.49</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.12</v>
+      </c>
       <c r="M5" s="9">
-        <f t="shared" si="0"/>
-        <v>0.26316666666666666</v>
+        <f t="shared" ref="M5:M17" si="2">AVERAGE(E5:J5)</f>
+        <v>2.7166666666666662E-2</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="1"/>
-        <v>45.218492716909438</v>
+        <f t="shared" ref="N5:N17" si="3">$M$19/M5</f>
+        <v>438.03680981595102</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="E6" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F6" s="8">
         <v>0.05</v>
       </c>
-      <c r="F6" s="8">
-        <v>0.15</v>
-      </c>
       <c r="G6" s="8">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="8">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I6" s="8">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="J6" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1.04</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.85</v>
-      </c>
+        <v>0.49</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.31833333333333336</v>
+        <f t="shared" si="2"/>
+        <v>0.26316666666666666</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" si="1"/>
-        <v>37.382198952879577</v>
+        <f t="shared" si="3"/>
+        <v>45.218492716909438</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>1993</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.05</v>
       </c>
       <c r="F7" s="8">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G7" s="8">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="H7" s="8">
         <v>0.33</v>
@@ -2057,15 +2057,21 @@
         <v>0.35</v>
       </c>
       <c r="J7" s="8">
-        <v>0.82</v>
+        <v>0.66</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.85</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.40199999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.31833333333333336</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="1"/>
-        <v>29.601990049751247</v>
+        <f t="shared" si="3"/>
+        <v>37.382198952879577</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15">
@@ -2076,235 +2082,229 @@
         <v>20</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.15</v>
+        <v>2019</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="8">
-        <v>1.1599999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G8" s="8">
-        <v>2.2000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="H8" s="8">
-        <v>2.4300000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="I8" s="8">
-        <v>2.63</v>
+        <v>0.35</v>
       </c>
       <c r="J8" s="8">
-        <v>3.69</v>
-      </c>
-      <c r="K8" s="8">
-        <v>5.94</v>
-      </c>
-      <c r="L8" s="8">
-        <v>14.91</v>
+        <v>0.82</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0433333333333334</v>
+        <f t="shared" si="2"/>
+        <v>0.40199999999999997</v>
       </c>
       <c r="N8" s="10">
-        <f t="shared" si="1"/>
-        <v>5.8238172920065248</v>
+        <f t="shared" si="3"/>
+        <v>29.601990049751247</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8">
-        <v>1982</v>
+        <v>2020</v>
       </c>
       <c r="E9" s="8">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="F9" s="8">
-        <v>3.1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G9" s="8">
-        <v>8.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H9" s="8">
-        <v>8.6999999999999993</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I9" s="8">
-        <v>9</v>
+        <v>2.63</v>
       </c>
       <c r="J9" s="8">
-        <v>13.9</v>
+        <v>3.69</v>
       </c>
       <c r="K9" s="8">
-        <v>21.2</v>
+        <v>5.94</v>
       </c>
       <c r="L9" s="8">
-        <v>49.9</v>
+        <v>14.91</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="0"/>
-        <v>7.2666666666666666</v>
+        <f t="shared" si="2"/>
+        <v>2.0433333333333334</v>
       </c>
       <c r="N9" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6376146788990826</v>
+        <f t="shared" si="3"/>
+        <v>5.8238172920065248</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E10" s="8">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="8">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G10" s="8">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="H10" s="8">
-        <v>7.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I10" s="8">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="J10" s="8">
-        <v>18.3</v>
+        <v>13.9</v>
       </c>
       <c r="K10" s="8">
-        <v>27.3</v>
+        <v>21.2</v>
       </c>
       <c r="L10" s="8">
-        <v>21.9</v>
+        <v>49.9</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
+        <f t="shared" si="2"/>
+        <v>7.2666666666666666</v>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="1"/>
-        <v>1.5354838709677421</v>
+        <f t="shared" si="3"/>
+        <v>1.6376146788990826</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="E11" s="8">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="F11" s="8">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="G11" s="8">
-        <v>9.1999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="H11" s="8">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="I11" s="8">
-        <v>12.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J11" s="8">
-        <v>25.9</v>
+        <v>18.3</v>
       </c>
       <c r="K11" s="8">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="L11" s="8"/>
+        <v>27.3</v>
+      </c>
+      <c r="L11" s="8">
+        <v>21.9</v>
+      </c>
       <c r="M11" s="9">
-        <f t="shared" si="0"/>
-        <v>10.499999999999998</v>
+        <f t="shared" si="2"/>
+        <v>7.75</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="1"/>
-        <v>1.1333333333333335</v>
+        <f t="shared" si="3"/>
+        <v>1.5354838709677421</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="E12" s="8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="8">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="G12" s="8">
-        <v>10.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H12" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="J12" s="8">
-        <v>22.9</v>
+        <v>25.9</v>
       </c>
       <c r="K12" s="8">
-        <v>35.4</v>
-      </c>
-      <c r="L12" s="8">
-        <v>34.4</v>
-      </c>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="L12" s="8"/>
       <c r="M12" s="9">
-        <f t="shared" si="0"/>
-        <v>10.616666666666665</v>
+        <f t="shared" si="2"/>
+        <v>10.499999999999998</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="1"/>
-        <v>1.1208791208791211</v>
+        <f t="shared" si="3"/>
+        <v>1.1333333333333335</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8">
         <v>1983</v>
@@ -2313,226 +2313,272 @@
         <v>1.6</v>
       </c>
       <c r="F13" s="8">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="G13" s="8">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
       </c>
       <c r="I13" s="8">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="J13" s="8">
-        <v>23.9</v>
+        <v>22.9</v>
       </c>
       <c r="K13" s="8">
-        <v>43.3</v>
+        <v>35.4</v>
       </c>
       <c r="L13" s="8">
-        <v>44.9</v>
+        <v>34.4</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="0"/>
-        <v>10.966666666666669</v>
+        <f t="shared" si="2"/>
+        <v>10.616666666666665</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="1"/>
-        <v>1.0851063829787233</v>
+        <f t="shared" si="3"/>
+        <v>1.1208791208791211</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="E14" s="8">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="F14" s="8">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="G14" s="8">
-        <v>16.399999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="H14" s="8">
-        <v>15.8</v>
+        <v>11</v>
       </c>
       <c r="I14" s="8">
-        <v>18.600000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="J14" s="8">
-        <v>49.7</v>
+        <v>23.9</v>
       </c>
       <c r="K14" s="8">
-        <v>68.5</v>
+        <v>43.3</v>
       </c>
       <c r="L14" s="8">
-        <v>162</v>
+        <v>44.9</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="0"/>
-        <v>18.650000000000002</v>
+        <f t="shared" si="2"/>
+        <v>10.966666666666669</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="1"/>
-        <v>0.63806970509383376</v>
+        <f t="shared" si="3"/>
+        <v>1.0851063829787233</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E15" s="8">
-        <v>2.2000000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="8">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="G15" s="8">
-        <v>19.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H15" s="8">
-        <v>24.1</v>
+        <v>15.8</v>
       </c>
       <c r="I15" s="8">
-        <v>26.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J15" s="8">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="K15" s="8">
-        <v>60.1</v>
-      </c>
-      <c r="L15" s="8"/>
+        <v>68.5</v>
+      </c>
+      <c r="L15" s="8">
+        <v>162</v>
+      </c>
       <c r="M15" s="9">
-        <f t="shared" si="0"/>
-        <v>19.983333333333331</v>
+        <f t="shared" si="2"/>
+        <v>18.650000000000002</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="1"/>
-        <v>0.59549624687239378</v>
+        <f t="shared" si="3"/>
+        <v>0.63806970509383376</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1984</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>19.7</v>
+      </c>
+      <c r="H16" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="J16" s="8">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K16" s="8">
+        <v>60.1</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9">
+        <f t="shared" si="2"/>
+        <v>19.983333333333331</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="3"/>
+        <v>0.59549624687239378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>1982</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>20</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>19.2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>23.1</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <v>53.4</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K17" s="8">
         <v>77.599999999999994</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L17" s="8">
         <v>239.1</v>
       </c>
-      <c r="M16" s="9">
-        <f t="shared" si="0"/>
+      <c r="M17" s="9">
+        <f t="shared" si="2"/>
         <v>21.383333333333336</v>
       </c>
-      <c r="N16" s="10">
-        <f t="shared" si="1"/>
+      <c r="N17" s="10">
+        <f t="shared" si="3"/>
         <v>0.55650818394388146</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:14" ht="15">
+      <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>1983</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>1.2</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>17.600000000000001</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>19.5</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <v>21</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <v>29.5</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K19" s="8">
         <v>47.5</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L19" s="8">
         <v>119.3</v>
       </c>
-      <c r="M18" s="9">
-        <f>AVERAGE(E18:H18)</f>
+      <c r="M19" s="9">
+        <f>AVERAGE(E19:H19)</f>
         <v>11.9</v>
       </c>
-      <c r="N18" s="10">
-        <f>M18/M18</f>
+      <c r="N19" s="10">
+        <f>M19/M19</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.63464566929133859" bottom="0.63464566929133859" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Liberation Sans2,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Liberation Sans2,Regular"Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/documents/benchmarks.xlsx
+++ b/documents/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulRobson\Projects\amoral\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C910AB09-23F8-4394-B9BE-D5B48A2EFB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138046E-E763-4F04-AE53-A649E797D43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>PCW Benchmark Timings</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Amoral/Fast</t>
+  </si>
+  <si>
+    <t>Note: BM3,4,5,6 are less impressive because they have multiply and divide in them, and AMORAL has to do this the same way as any other 6502 based computer. Most of the</t>
+  </si>
+  <si>
+    <t>time is spent doing that arithmetic. In a Floating Point BASIC, add and multiply take about the same time.</t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2570,6 +2576,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:14">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.63464566929133859" bottom="0.63464566929133859" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
